--- a/data/output/results/betting_analysis_20220305.xlsx
+++ b/data/output/results/betting_analysis_20220305.xlsx
@@ -512,7 +512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,60 +613,70 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>date_run</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>EV_pl1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>EV_pl2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Std_Dev_pl1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Std_Dev_pl2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Sharpe_Ratio_pl1</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Sharpe_Ratio_pl2</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Best_Bet_EV</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Best_Bet</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Best_Bet_Sharpe</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Money_to_Bet</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Prob_Win</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Payout</t>
         </is>
@@ -680,12 +690,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Haase R.</t>
+          <t>Statham R.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -694,16 +704,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.18</v>
+        <v>2.94</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Diez S.</t>
+          <t>Cuevas P.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -712,214 +722,236 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4.48</v>
+        <v>1.38</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44</v>
+        <v>-640</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4566712974788133</v>
+        <v>0.2160523646427664</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5433287025211866</v>
+        <v>0.7839476353572336</v>
       </c>
       <c r="R2" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S2" t="n">
-        <v>-0.004456571496187056</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T2" t="n">
-        <v>1.977441289816103</v>
+        <v>-0.1487536833075005</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5877805211250838</v>
+        <v>0.8657953721502157</v>
       </c>
       <c r="V2" t="n">
-        <v>2.231573503932522</v>
+        <v>1.209958206842557</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.72591049726247</v>
+        <v>0.5679395664771187</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4335242769782214</v>
+        <v>-0.9576807502560957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.977441289816103</v>
-      </c>
-      <c r="Z2" t="inlineStr">
+        <v>-0.2539084021637609</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.8657953721502157</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Statham R.
+Cuevas P.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA2" t="n">
-        <v>0.4335242769782214</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9.579585819749697</v>
-      </c>
       <c r="AC2" t="n">
-        <v>0.5433287025211866</v>
+        <v>-0.2539084021637609</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.48</v>
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.7839476353572336</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Varioussurfaces</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Statham R.</t>
+          <t>Moraing M.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pospisil V.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Right-Handed</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cuevas P.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>URY</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Right-Handed</t>
-        </is>
-      </c>
       <c r="I3" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L3" t="n">
-        <v>-640</v>
+        <v>-213</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="N3" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2160523646427664</v>
+        <v>0.3907570101366825</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7839476353572336</v>
+        <v>0.6092429898633175</v>
       </c>
       <c r="R3" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S3" t="n">
-        <v>-0.1487536833075006</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T3" t="n">
-        <v>0.8657953721502157</v>
+        <v>0.5747507508508304</v>
       </c>
       <c r="U3" t="n">
-        <v>1.209958206842557</v>
+        <v>0.4378134560774293</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5679395664771187</v>
+        <v>1.4783977327883</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.9576807502560958</v>
+        <v>0.6635712596013494</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.2539084021637609</v>
+        <v>-0.2944060583265892</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8657953721502157</v>
-      </c>
-      <c r="Z3" t="inlineStr">
+        <v>-0.8622834935110368</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.4378134560774293</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Moraing M.
+Pospisil V.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA3" t="n">
-        <v>-0.2539084021637609</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
+        <v>-0.8622834935110368</v>
+      </c>
+      <c r="AD3" t="n">
         <v>1</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0.7839476353572336</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.38</v>
+      <c r="AE3" t="n">
+        <v>0.6092429898633175</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>Varioussurfaces</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moraing M.</t>
+          <t>De Minaur A.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Left-Handed</t>
+          <t>Right-Handed</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.03</v>
+        <v>1.56</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pospisil V.</t>
+          <t>Fucsovics M.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -928,72 +960,83 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.36</v>
+        <v>2.35</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="L4" t="n">
-        <v>-213</v>
+        <v>104</v>
       </c>
       <c r="M4" t="n">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3907570101366825</v>
+        <v>0.4648150532549652</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6092429898633175</v>
+        <v>0.5351849467450349</v>
       </c>
       <c r="R4" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S4" t="n">
-        <v>0.5747507508508304</v>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T4" t="n">
-        <v>0.4378134560774293</v>
+        <v>0.1899265363327109</v>
       </c>
       <c r="U4" t="n">
-        <v>1.4783977327883</v>
+        <v>0.7928695715958671</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6635712596013494</v>
+        <v>0.7780663536679089</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.2944060583265892</v>
+        <v>1.172087135333068</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.8622834935110368</v>
+        <v>-1.053989110056428</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5747507508508304</v>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>pl1</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>-0.2944060583265892</v>
-      </c>
-      <c r="AB4" t="n">
+        <v>-0.1852510976860365</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.7928695715958671</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>De Minaur A.
+Fucsovics M.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>pl2</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.1852510976860365</v>
+      </c>
+      <c r="AD4" t="n">
         <v>1</v>
       </c>
-      <c r="AC4" t="n">
-        <v>0.3907570101366825</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3.03</v>
+      <c r="AE4" t="n">
+        <v>0.5351849467450349</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="5">
@@ -1004,12 +1047,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sinner J.</t>
+          <t>Goffin D.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1018,16 +1061,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.07</v>
+        <v>3.63</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Horansky F.</t>
+          <t>Ruusuvuori E.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1036,88 +1079,99 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8.83</v>
+        <v>1.27</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>3048</v>
+        <v>250</v>
       </c>
       <c r="M5" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="N5" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7920411097081183</v>
+        <v>0.4555497026833224</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2079588902918817</v>
+        <v>0.5444502973166775</v>
       </c>
       <c r="R5" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S5" t="n">
-        <v>0.6395250970958049</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T5" t="n">
-        <v>1.044235891569197</v>
+        <v>1.109195123423783</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4342565573785757</v>
+        <v>0.2359021749088579</v>
       </c>
       <c r="V5" t="n">
-        <v>3.583631216497965</v>
+        <v>1.80781351354391</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.8531244873781445</v>
+        <v>0.632485719614536</v>
       </c>
       <c r="X5" t="n">
-        <v>0.009553408121791358</v>
+        <v>0.05487021901353506</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.044235891569197</v>
-      </c>
-      <c r="Z5" t="inlineStr">
+        <v>-1.223897711971917</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.2359021749088579</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Goffin D.
+Ruusuvuori E.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA5" t="n">
-        <v>0.009553408121791358</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
+        <v>-1.223897711971917</v>
+      </c>
+      <c r="AD5" t="n">
         <v>1</v>
       </c>
-      <c r="AC5" t="n">
-        <v>0.2079588902918817</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8.83</v>
+      <c r="AE5" t="n">
+        <v>0.5444502973166775</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>Varioussurfaces</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mager G.</t>
+          <t>Daniel T.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1126,90 +1180,101 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.34</v>
+        <v>2.98</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bonadio R.</t>
+          <t>Madaras D.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Right-Handed</t>
+          <t>Left-Handed</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3.11</v>
+        <v>1.36</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>624</v>
+        <v>458</v>
       </c>
       <c r="M6" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5806010153033233</v>
+        <v>0.5788051294676735</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4193989846966768</v>
+        <v>0.4211948705323266</v>
       </c>
       <c r="R6" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S6" t="n">
-        <v>0.3586063758097766</v>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T6" t="n">
-        <v>0.7237298271033417</v>
+        <v>1.30364441528134</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6612373568559713</v>
+        <v>-0.005980105543709091</v>
       </c>
       <c r="V6" t="n">
-        <v>1.534662820762739</v>
+        <v>1.47137707941864</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.9851131631271522</v>
+        <v>0.6715009489964264</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.1865362013229589</v>
+        <v>0.1995711496317199</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7237298271033417</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA6" t="n">
-        <v>-0.1865362013229589</v>
-      </c>
-      <c r="AB6" t="n">
+        <v>-1.51299876353431</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.30364441528134</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Daniel T.
+Madaras D.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1995711496317199</v>
+      </c>
+      <c r="AD6" t="n">
         <v>1</v>
       </c>
-      <c r="AC6" t="n">
-        <v>0.4193989846966768</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3.11</v>
+      <c r="AE6" t="n">
+        <v>0.5788051294676735</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="7">
@@ -1220,12 +1285,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Daniel T.</t>
+          <t>Musetti L.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1234,106 +1299,117 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Madaras D.</t>
+          <t>Gombos N.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Left-Handed</t>
+          <t>Right-Handed</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="L7" t="n">
-        <v>458</v>
+        <v>386</v>
       </c>
       <c r="M7" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5788051294676735</v>
+        <v>0.574116305982774</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4211948705323266</v>
+        <v>0.425883694017226</v>
       </c>
       <c r="R7" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.30364441528134</v>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T7" t="n">
-        <v>-0.005980105543709313</v>
+        <v>1.26201824557213</v>
       </c>
       <c r="U7" t="n">
-        <v>1.47137707941864</v>
+        <v>0.01360319176099778</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6715009489964264</v>
+        <v>1.453760208811342</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1995711496317199</v>
+        <v>0.6823772408706299</v>
       </c>
       <c r="X7" t="n">
-        <v>-1.51299876353431</v>
+        <v>0.1733561312550924</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.30364441528134</v>
-      </c>
-      <c r="Z7" t="inlineStr">
+        <v>-1.460184702185732</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.26201824557213</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Musetti L.
+Gombos N.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA7" t="n">
-        <v>0.1995711496317199</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
+        <v>0.1733561312550924</v>
+      </c>
+      <c r="AD7" t="n">
         <v>1</v>
       </c>
-      <c r="AC7" t="n">
-        <v>0.5788051294676735</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.98</v>
+      <c r="AE7" t="n">
+        <v>0.574116305982774</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>Varioussurfaces</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carballes Baena R.</t>
+          <t>Ymer E.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1342,16 +1418,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ajdukovic D.</t>
+          <t>Watanuki Y.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1360,72 +1436,83 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3.99</v>
+        <v>3.06</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>619</v>
+        <v>255</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N8" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6205187770083161</v>
+        <v>0.5143657212614051</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3794812229916839</v>
+        <v>0.4856342787385949</v>
       </c>
       <c r="R8" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.383756872728545</v>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T8" t="n">
-        <v>0.8936113027285029</v>
+        <v>0.203615787751688</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5968672105060222</v>
+        <v>0.9716751716786952</v>
       </c>
       <c r="V8" t="n">
-        <v>1.93617899993417</v>
+        <v>0.6697234018160928</v>
       </c>
       <c r="W8" t="n">
-        <v>-1.04921683793038</v>
+        <v>1.529368365341227</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.06011257082917146</v>
+        <v>-1.204055599761984</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8936113027285029</v>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA8" t="n">
-        <v>-0.06011257082917146</v>
-      </c>
-      <c r="AB8" t="n">
+        <v>-0.02505925268877515</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.203615787751688</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Ymer E.
+Watanuki Y.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>-1.204055599761984</v>
+      </c>
+      <c r="AD8" t="n">
         <v>1</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0.3794812229916839</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3.99</v>
+      <c r="AE8" t="n">
+        <v>0.5143657212614051</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="9">
@@ -1436,12 +1523,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kokkinakis T.</t>
+          <t>Haase R.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1450,16 +1537,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Piros Z.</t>
+          <t>Diez S.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1468,72 +1555,83 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4.91</v>
+        <v>4.48</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>638</v>
+        <v>44</v>
       </c>
       <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
         <v>16</v>
       </c>
-      <c r="N9" t="n">
-        <v>13</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5541909176700177</v>
+        <v>0.4566712974788133</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4458090823299824</v>
+        <v>0.5433287025211866</v>
       </c>
       <c r="R9" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.2025942913439384</v>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T9" t="n">
-        <v>1.634731676570196</v>
+        <v>-0.004456571496187056</v>
       </c>
       <c r="U9" t="n">
-        <v>0.581553963280077</v>
+        <v>1.977441289816103</v>
       </c>
       <c r="V9" t="n">
-        <v>2.440538427098443</v>
+        <v>0.5877805211250838</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.388359051156899</v>
+        <v>2.231573503932522</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2559810858265977</v>
+        <v>-1.72591049726247</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.634731676570196</v>
-      </c>
-      <c r="Z9" t="inlineStr">
+        <v>0.4335242769782214</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.977441289816103</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Haase R.
+Diez S.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA9" t="n">
-        <v>0.2559810858265977</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7.919351370185988</v>
-      </c>
       <c r="AC9" t="n">
-        <v>0.4458090823299824</v>
+        <v>0.4335242769782214</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.91</v>
+        <v>0.9012467852503254</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.5433287025211866</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>4.48</v>
       </c>
     </row>
     <row r="10">
@@ -1544,12 +1642,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Musetti L.</t>
+          <t>Safwat M.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1558,16 +1656,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.94</v>
+        <v>1.58</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gombos N.</t>
+          <t>Chrysochos P.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>CYP</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1576,88 +1674,99 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1.38</v>
+        <v>2.26</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="M10" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="N10" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0.574116305982774</v>
+        <v>0.1656435686739793</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.425883694017226</v>
+        <v>0.8343564313260208</v>
       </c>
       <c r="R10" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.26201824557213</v>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T10" t="n">
-        <v>0.01360319176099789</v>
+        <v>-0.5726395928211334</v>
       </c>
       <c r="U10" t="n">
-        <v>1.453760208811342</v>
+        <v>1.720001966122828</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6823772408706299</v>
+        <v>0.5873813933729334</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1733561312550924</v>
+        <v>0.8401784487486259</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.460184702185732</v>
+        <v>-2.694398581019236</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.26201824557213</v>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>pl1</t>
-        </is>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.1733561312550924</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1</v>
+        <v>0.8450609119768723</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.720001966122828</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Safwat M.
+Chrysochos P.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>pl2</t>
+        </is>
       </c>
       <c r="AC10" t="n">
-        <v>0.574116305982774</v>
+        <v>0.8450609119768723</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.94</v>
+        <v>0.7839151789616963</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.8343564313260208</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Varioussurfaces</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Coria F.</t>
+          <t>Mager G.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1666,16 +1775,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kopriva V.</t>
+          <t>Bonadio R.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1684,88 +1793,99 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8.83</v>
+        <v>3.11</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>624</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N11" t="n">
         <v>8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>643</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5533148608595844</v>
+        <v>0.5806010153033233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4466851391404156</v>
+        <v>0.4193989846966768</v>
       </c>
       <c r="R11" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S11" t="n">
-        <v>0.1453617619793397</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T11" t="n">
-        <v>3.390914917750285</v>
+        <v>0.3586063758097766</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5319498576676498</v>
+        <v>0.7237298271033417</v>
       </c>
       <c r="V11" t="n">
-        <v>4.389829199257334</v>
+        <v>0.6612373568559713</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.625413045153716</v>
+        <v>1.534662820762739</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5423707414751092</v>
+        <v>-0.9851131631271522</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.390914917750285</v>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.5423707414751092</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>16.42706695230342</v>
+        <v>-0.1865362013229589</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.3586063758097766</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Mager G.
+Bonadio R.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
       </c>
       <c r="AC11" t="n">
-        <v>0.4466851391404156</v>
+        <v>-0.9851131631271522</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.83</v>
+        <v>1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.5806010153033233</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Varioussurfaces</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ymer E.</t>
+          <t>Svrcina D.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1774,16 +1894,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.34</v>
+        <v>1.88</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Watanuki Y.</t>
+          <t>Lokoli L.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1792,72 +1912,83 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3.06</v>
+        <v>1.81</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>66</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-10</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="n">
-        <v>255</v>
-      </c>
-      <c r="M12" t="n">
-        <v>16</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
-        <v>0.5143657212614051</v>
+        <v>0.4791066039511201</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4856342787385949</v>
+        <v>0.5208933960488799</v>
       </c>
       <c r="R12" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S12" t="n">
-        <v>0.203615787751688</v>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T12" t="n">
-        <v>0.9716751716786952</v>
+        <v>0.3798270193792258</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6697234018160928</v>
+        <v>0.4637104428973524</v>
       </c>
       <c r="V12" t="n">
-        <v>1.529368365341227</v>
+        <v>0.9391789575133481</v>
       </c>
       <c r="W12" t="n">
-        <v>-1.204055599761984</v>
+        <v>0.9042095282442342</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.02505925268877515</v>
+        <v>-0.6709828575048945</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9716751716786952</v>
-      </c>
-      <c r="Z12" t="inlineStr">
+        <v>-0.6041625751980468</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.4637104428973524</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Svrcina D.
+Lokoli L.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA12" t="n">
-        <v>-0.02505925268877515</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
+        <v>-0.6041625751980468</v>
+      </c>
+      <c r="AD12" t="n">
         <v>1</v>
       </c>
-      <c r="AC12" t="n">
-        <v>0.4856342787385949</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3.06</v>
+      <c r="AE12" t="n">
+        <v>0.5208933960488799</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="13">
@@ -1868,12 +1999,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Safwat M.</t>
+          <t>Bublik A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1882,16 +2013,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.58</v>
+        <v>2.98</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Chrysochos P.</t>
+          <t>Ruud C.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1900,72 +2031,83 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2.26</v>
+        <v>1.36</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>404</v>
+        <v>-2494</v>
       </c>
       <c r="M13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1656435686739793</v>
+        <v>0.2038396321819109</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8343564313260208</v>
+        <v>0.7961603678180891</v>
       </c>
       <c r="R13" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S13" t="n">
-        <v>-0.5726395928211335</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T13" t="n">
-        <v>1.720001966122828</v>
+        <v>-0.1887182639159946</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5873813933729334</v>
+        <v>0.8789384680506902</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8401784487486259</v>
+        <v>1.200496380683939</v>
       </c>
       <c r="W13" t="n">
-        <v>-2.694398581019236</v>
+        <v>0.5478775428624691</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8450609119768723</v>
+        <v>-0.9985188487057896</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.720001966122828</v>
-      </c>
-      <c r="Z13" t="inlineStr">
+        <v>-0.2392168353252061</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.8789384680506902</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Bublik A.
+Ruud C.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA13" t="n">
-        <v>0.8450609119768723</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.332437746429454</v>
-      </c>
       <c r="AC13" t="n">
-        <v>0.8343564313260208</v>
+        <v>-0.2392168353252061</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.26</v>
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.7961603678180891</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="14">
@@ -1976,12 +2118,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>De Minaur A.</t>
+          <t>Zverev A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1990,106 +2132,117 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.56</v>
+        <v>1.14</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fucsovics M.</t>
+          <t>Monteiro T.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Right-Handed</t>
+          <t>Left-Handed</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2.35</v>
+        <v>5.34</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="L14" t="n">
-        <v>104</v>
+        <v>6885</v>
       </c>
       <c r="M14" t="n">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="N14" t="n">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4648150532549652</v>
+        <v>0.9509241079006499</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5351849467450349</v>
+        <v>0.04907589209935013</v>
       </c>
       <c r="R14" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S14" t="n">
-        <v>0.1899265363327109</v>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T14" t="n">
-        <v>0.7928695715958671</v>
+        <v>1.034977590907391</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7780663536679089</v>
+        <v>-0.6888588440901202</v>
       </c>
       <c r="V14" t="n">
-        <v>1.172087135333068</v>
+        <v>0.2462702105587243</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.053989110056428</v>
+        <v>1.153581512617182</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.1852510976860365</v>
+        <v>0.1014235170820004</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.7928695715958671</v>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA14" t="n">
-        <v>-0.1852510976860365</v>
-      </c>
-      <c r="AB14" t="n">
+        <v>-1.472682099625403</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.034977590907391</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Zverev A.
+Monteiro T.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.1014235170820004</v>
+      </c>
+      <c r="AD14" t="n">
         <v>1</v>
       </c>
-      <c r="AC14" t="n">
-        <v>0.5351849467450349</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.35</v>
+      <c r="AE14" t="n">
+        <v>0.9509241079006499</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>Varioussurfaces</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Svrcina D.</t>
+          <t>Kokkinakis T.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2098,16 +2251,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.88</v>
+        <v>1.17</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lokoli L.</t>
+          <t>Piros Z.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2116,88 +2269,99 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1.81</v>
+        <v>4.91</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>66</v>
+        <v>638</v>
       </c>
       <c r="M15" t="n">
-        <v>-10</v>
+        <v>16</v>
       </c>
       <c r="N15" t="n">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4791066039511201</v>
+        <v>0.5541909176700177</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5208933960488799</v>
+        <v>0.4458090823299824</v>
       </c>
       <c r="R15" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S15" t="n">
-        <v>0.379827019379226</v>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T15" t="n">
-        <v>0.4637104428973524</v>
+        <v>0.2025942913439384</v>
       </c>
       <c r="U15" t="n">
-        <v>0.9391789575133481</v>
+        <v>1.634731676570196</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9042095282442342</v>
+        <v>0.581553963280077</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.6709828575048943</v>
+        <v>2.440538427098443</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.6041625751980468</v>
+        <v>-1.388359051156899</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.4637104428973524</v>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA15" t="n">
-        <v>-0.6041625751980468</v>
-      </c>
-      <c r="AB15" t="n">
+        <v>0.2559810858265977</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.2025942913439384</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Kokkinakis T.
+Piros Z.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
+        <v>-1.388359051156899</v>
+      </c>
+      <c r="AD15" t="n">
         <v>1</v>
       </c>
-      <c r="AC15" t="n">
-        <v>0.5208933960488799</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1.81</v>
+      <c r="AE15" t="n">
+        <v>0.5541909176700177</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Varioussurfaces</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zverev A.</t>
+          <t>Carballes Baena R.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2206,90 +2370,101 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Monteiro T.</t>
+          <t>Ajdukovic D.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Left-Handed</t>
+          <t>Right-Handed</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5.34</v>
+        <v>3.99</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>6885</v>
+        <v>619</v>
       </c>
       <c r="M16" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9509241079006499</v>
+        <v>0.6205187770083161</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04907589209935013</v>
+        <v>0.3794812229916839</v>
       </c>
       <c r="R16" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S16" t="n">
-        <v>1.034977590907391</v>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T16" t="n">
-        <v>-0.6888588440901202</v>
+        <v>0.383756872728545</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2462702105587243</v>
+        <v>0.8936113027285029</v>
       </c>
       <c r="V16" t="n">
-        <v>1.153581512617182</v>
+        <v>0.5968672105060222</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1014235170820004</v>
+        <v>1.93617899993417</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.472682099625403</v>
+        <v>-1.04921683793038</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.034977590907391</v>
-      </c>
-      <c r="Z16" t="inlineStr">
+        <v>-0.06011257082917146</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.383756872728545</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Carballes Baena R.
+Ajdukovic D.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA16" t="n">
-        <v>0.1014235170820004</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
+        <v>-1.04921683793038</v>
+      </c>
+      <c r="AD16" t="n">
         <v>1</v>
       </c>
-      <c r="AC16" t="n">
-        <v>0.9509241079006499</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1.14</v>
+      <c r="AE16" t="n">
+        <v>0.6205187770083161</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="17">
@@ -2300,12 +2475,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bublik A.</t>
+          <t>Sinner J.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2314,16 +2489,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.98</v>
+        <v>1.07</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ruud C.</t>
+          <t>Horansky F.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2332,72 +2507,83 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1.36</v>
+        <v>8.83</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="L17" t="n">
-        <v>-2494</v>
+        <v>3048</v>
       </c>
       <c r="M17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="n">
-        <v>15</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
       <c r="P17" t="n">
-        <v>0.2038396321819109</v>
+        <v>0.7920411097081183</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7961603678180891</v>
+        <v>0.2079588902918817</v>
       </c>
       <c r="R17" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S17" t="n">
-        <v>-0.1887182639159946</v>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T17" t="n">
-        <v>0.8789384680506902</v>
+        <v>0.6395250970958049</v>
       </c>
       <c r="U17" t="n">
-        <v>1.20049638068394</v>
+        <v>1.044235891569197</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5478775428624691</v>
+        <v>0.4342565573785757</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.9985188487057894</v>
+        <v>3.583631216497965</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.2392168353252061</v>
+        <v>-0.8531244873781445</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.8789384680506902</v>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA17" t="n">
-        <v>-0.2392168353252061</v>
-      </c>
-      <c r="AB17" t="n">
+        <v>0.00955340812179142</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.6395250970958049</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Sinner J.
+Horansky F.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0.8531244873781445</v>
+      </c>
+      <c r="AD17" t="n">
         <v>1</v>
       </c>
-      <c r="AC17" t="n">
-        <v>0.7961603678180891</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1.36</v>
+      <c r="AE17" t="n">
+        <v>0.7920411097081183</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="18">
@@ -2408,12 +2594,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Goffin D.</t>
+          <t>Coria F.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2422,16 +2608,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3.63</v>
+        <v>1.07</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ruusuvuori E.</t>
+          <t>Kopriva V.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2440,7 +2626,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1.27</v>
+        <v>8.83</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2449,63 +2635,74 @@
         <v>8</v>
       </c>
       <c r="L18" t="n">
-        <v>250</v>
+        <v>643</v>
       </c>
       <c r="M18" t="n">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4555497026833224</v>
+        <v>0.5533148608595844</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5444502973166775</v>
+        <v>0.4466851391404156</v>
       </c>
       <c r="R18" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.109195123423783</v>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="T18" t="n">
-        <v>0.2359021749088579</v>
+        <v>0.1453617619793397</v>
       </c>
       <c r="U18" t="n">
-        <v>1.80781351354391</v>
+        <v>3.390914917750285</v>
       </c>
       <c r="V18" t="n">
-        <v>0.632485719614536</v>
+        <v>0.5319498576676498</v>
       </c>
       <c r="W18" t="n">
-        <v>0.05487021901353506</v>
+        <v>4.389829199257334</v>
       </c>
       <c r="X18" t="n">
-        <v>-1.223897711971917</v>
+        <v>-1.625413045153716</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.109195123423783</v>
-      </c>
-      <c r="Z18" t="inlineStr">
+        <v>0.5423707414751092</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.1453617619793397</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Coria F.
+Kopriva V.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA18" t="n">
-        <v>0.05487021901353506</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
+        <v>-1.625413045153716</v>
+      </c>
+      <c r="AD18" t="n">
         <v>1</v>
       </c>
-      <c r="AC18" t="n">
-        <v>0.4555497026833224</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>3.63</v>
+      <c r="AE18" t="n">
+        <v>0.5533148608595844</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>
@@ -2537,5002 +2734,5002 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.81</v>
+        <v>13.52367041895976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38.8840152276132</v>
+        <v>-5.565161964212022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.98</v>
+        <v>5.004838035787979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1</v>
+        <v>7.790401519203108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42.91654447247865</v>
+        <v>6.054838035787978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-16.42706695230342</v>
+        <v>1.703670418959762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1</v>
+        <v>11.19040151920311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1</v>
+        <v>7.923670418959761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.94</v>
+        <v>9.149233902374894</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1</v>
+        <v>7.879233902374891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.38</v>
+        <v>5.959233902374892</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.63</v>
+        <v>-3.005161964212021</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1</v>
+        <v>-1.569598480796891</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1</v>
+        <v>-3.675161964212022</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1</v>
+        <v>6.973670418959762</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1</v>
+        <v>4.819233902374893</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1</v>
+        <v>5.950401519203108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.94</v>
+        <v>4.774838035787979</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>145.0510011888392</v>
+        <v>18.10367041895977</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-7.919351370185988</v>
+        <v>10.12040151920311</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-7.919351370185988</v>
+        <v>8.470401519203108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>18.83130930693056</v>
+        <v>5.074838035787979</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.38</v>
+        <v>7.283670418959762</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.35</v>
+        <v>-5.639598480796892</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.36</v>
+        <v>4.183670418959762</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.94</v>
+        <v>9.673670418959762</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-1</v>
+        <v>2.760401519203109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18.83130930693056</v>
+        <v>6.894838035787977</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>42.91654447247865</v>
+        <v>12.60367041895976</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.98</v>
+        <v>-5.685161964212022</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.38</v>
+        <v>9.163670418959763</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.36</v>
+        <v>8.319233902374892</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-16.42706695230342</v>
+        <v>15.45367041895976</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38.8840152276132</v>
+        <v>3.184838035787979</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>145.0510011888392</v>
+        <v>12.20923390237489</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1</v>
+        <v>6.444838035787978</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.99</v>
+        <v>10.32923390237489</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1</v>
+        <v>1.290401519203108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-1</v>
+        <v>3.520401519203109</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1</v>
+        <v>8.833670418959763</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-1</v>
+        <v>6.249233902374892</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.36</v>
+        <v>1.560401519203109</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1</v>
+        <v>7.839233902374891</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1</v>
+        <v>13.60367041895976</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.63</v>
+        <v>0.8792339023748921</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8.83</v>
+        <v>3.814838035787979</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.81</v>
+        <v>19.15923390237489</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-1</v>
+        <v>4.703670418959762</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>18.83130930693056</v>
+        <v>10.59040151920311</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>18.83130930693056</v>
+        <v>5.114838035787979</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1</v>
+        <v>7.159233902374893</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.38</v>
+        <v>13.84923390237489</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.38</v>
+        <v>10.25483803578798</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1</v>
+        <v>18.43923390237489</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-16.42706695230342</v>
+        <v>12.87923390237489</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>18.83130930693056</v>
+        <v>-0.4951619642120217</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.38</v>
+        <v>-0.06959848079689146</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-1</v>
+        <v>6.970401519203108</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18.83130930693056</v>
+        <v>-1.969598480796892</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1</v>
+        <v>7.813670418959761</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1</v>
+        <v>6.220401519203109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>18.83130930693056</v>
+        <v>-6.575161964212022</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-16.42706695230342</v>
+        <v>0.3848380357879779</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>145.0510011888392</v>
+        <v>7.140401519203108</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-16.42706695230342</v>
+        <v>6.293670418959762</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-8.332437746429454</v>
+        <v>4.994838035787978</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-1</v>
+        <v>14.04367041895976</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1</v>
+        <v>5.050401519203109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-1</v>
+        <v>8.440401519203109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1</v>
+        <v>15.77367041895976</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>18.83130930693056</v>
+        <v>12.92483803578798</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1</v>
+        <v>4.450401519203108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1</v>
+        <v>9.774838035787976</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.38</v>
+        <v>10.69040151920311</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1</v>
+        <v>13.13923390237489</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3.11</v>
+        <v>5.589233902374891</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.98</v>
+        <v>5.254838035787978</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>38.8840152276132</v>
+        <v>9.223670418959761</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1</v>
+        <v>14.03923390237489</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-1</v>
+        <v>22.84923390237489</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1</v>
+        <v>6.983670418959761</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1</v>
+        <v>3.789233902374892</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-9.579585819749697</v>
+        <v>15.45367041895976</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-16.42706695230342</v>
+        <v>10.51040151920311</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.98</v>
+        <v>10.85923390237489</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1</v>
+        <v>-2.295161964212022</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>38.8840152276132</v>
+        <v>5.270401519203109</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-9.579585819749697</v>
+        <v>14.44367041895976</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-8.332437746429454</v>
+        <v>7.383670418959762</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>3.63</v>
+        <v>8.623670418959762</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1</v>
+        <v>8.130401519203108</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3.03</v>
+        <v>11.10367041895976</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-1</v>
+        <v>7.279233902374891</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>145.0510011888392</v>
+        <v>13.85367041895977</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3.11</v>
+        <v>11.37483803578798</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-1</v>
+        <v>-0.2395984807968918</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-1</v>
+        <v>8.164838035787978</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1</v>
+        <v>1.859233902374892</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-1</v>
+        <v>1.230401519203109</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>38.8840152276132</v>
+        <v>4.809233902374892</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.98</v>
+        <v>3.694838035787979</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>42.91654447247865</v>
+        <v>-3.655161964212022</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.98</v>
+        <v>11.15367041895976</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3.99</v>
+        <v>8.944838035787978</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1</v>
+        <v>2.370401519203109</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.94</v>
+        <v>7.174838035787978</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1</v>
+        <v>10.46923390237489</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.14</v>
+        <v>1.340401519203109</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1</v>
+        <v>7.104838035787978</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.06</v>
+        <v>7.104838035787978</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1</v>
+        <v>5.314838035787979</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.81</v>
+        <v>16.22923390237489</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-7.919351370185988</v>
+        <v>6.413670418959763</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1</v>
+        <v>12.42040151920311</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>42.91654447247865</v>
+        <v>9.119233902374893</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.98</v>
+        <v>0.4048380357879782</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1</v>
+        <v>-0.4651619642120217</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3.11</v>
+        <v>1.410401519203108</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1</v>
+        <v>3.830401519203108</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>42.91654447247865</v>
+        <v>4.274838035787978</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1</v>
+        <v>5.739233902374892</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-1</v>
+        <v>0.9748380357879789</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-7.919351370185988</v>
+        <v>4.264838035787978</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.38</v>
+        <v>8.650401519203109</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-16.42706695230342</v>
+        <v>5.030401519203109</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3.63</v>
+        <v>6.099233902374891</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3.63</v>
+        <v>6.530401519203108</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1</v>
+        <v>-5.365161964212021</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-16.42706695230342</v>
+        <v>10.52040151920311</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-1</v>
+        <v>8.229233902374892</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3.99</v>
+        <v>13.08923390237489</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-1</v>
+        <v>12.02923390237489</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-1</v>
+        <v>-2.550766097625108</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.36</v>
+        <v>5.053670418959761</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.81</v>
+        <v>5.500401519203107</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>18.83130930693056</v>
+        <v>6.309233902374892</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1</v>
+        <v>1.513670418959762</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>38.8840152276132</v>
+        <v>8.480401519203108</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-9.579585819749697</v>
+        <v>8.623670418959762</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8.83</v>
+        <v>10.40923390237489</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-1</v>
+        <v>11.05923390237489</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.14</v>
+        <v>-8.245161964212022</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>3.03</v>
+        <v>8.319233902374892</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.35</v>
+        <v>5.760401519203109</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>145.0510011888392</v>
+        <v>14.05367041895976</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-7.919351370185988</v>
+        <v>3.789233902374892</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-1</v>
+        <v>-3.379598480796892</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>18.83130930693056</v>
+        <v>5.753670418959763</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.14</v>
+        <v>7.069233902374892</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-1</v>
+        <v>7.879233902374892</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.06</v>
+        <v>11.07367041895976</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3.06</v>
+        <v>4.143670418959761</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>3.03</v>
+        <v>4.403670418959761</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-1</v>
+        <v>10.21040151920311</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-1</v>
+        <v>-0.6795984807968916</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.35</v>
+        <v>6.279233902374893</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-1</v>
+        <v>9.509233902374891</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3.63</v>
+        <v>-0.5351619642120213</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3.99</v>
+        <v>4.089233902374891</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>145.0510011888392</v>
+        <v>-0.01516196421202087</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-1</v>
+        <v>-0.9151619642120215</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-1</v>
+        <v>1.984838035787978</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>3.11</v>
+        <v>3.554838035787978</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-1</v>
+        <v>13.41923390237489</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-1</v>
+        <v>6.954838035787979</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-9.579585819749697</v>
+        <v>4.270401519203109</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.14</v>
+        <v>8.523670418959762</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-1</v>
+        <v>5.500401519203108</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-1</v>
+        <v>9.449233902374893</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-1</v>
+        <v>15.49923390237489</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.14</v>
+        <v>-6.565161964212022</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-1</v>
+        <v>7.823670418959763</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.14</v>
+        <v>1.110401519203108</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>42.91654447247865</v>
+        <v>-5.319598480796891</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-1</v>
+        <v>4.359233902374892</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-1</v>
+        <v>1.230401519203109</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-1</v>
+        <v>18.34367041895976</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.14</v>
+        <v>8.859233902374893</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>18.83130930693056</v>
+        <v>1.094838035787978</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.81</v>
+        <v>10.02040151920311</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-1</v>
+        <v>15.81040151920311</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3.11</v>
+        <v>8.623670418959762</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-1</v>
+        <v>16.03923390237489</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-1</v>
+        <v>3.004838035787978</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>18.83130930693056</v>
+        <v>1.503670418959762</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-9.579585819749697</v>
+        <v>14.10367041895976</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.35</v>
+        <v>-5.825161964212022</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>38.8840152276132</v>
+        <v>10.08367041895976</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.36</v>
+        <v>-2.565161964212022</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.81</v>
+        <v>2.554838035787977</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-9.579585819749697</v>
+        <v>3.673670418959762</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-1</v>
+        <v>9.663670418959763</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.36</v>
+        <v>-3.635161964212022</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-1</v>
+        <v>1.904838035787977</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>18.83130930693056</v>
+        <v>11.02040151920311</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>3.63</v>
+        <v>3.204838035787978</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-1</v>
+        <v>2.113670418959762</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>3.06</v>
+        <v>16.98923390237489</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>38.8840152276132</v>
+        <v>5.394838035787978</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.38</v>
+        <v>14.44923390237489</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.14</v>
+        <v>5.830401519203108</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.38</v>
+        <v>5.690401519203109</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-16.42706695230342</v>
+        <v>3.459233902374892</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-1</v>
+        <v>6.354838035787977</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>145.0510011888392</v>
+        <v>15.08040151920311</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1.36</v>
+        <v>15.87923390237489</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1.36</v>
+        <v>-7.74516196421202</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3.03</v>
+        <v>2.524838035787976</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.35</v>
+        <v>10.71040151920311</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.35</v>
+        <v>15.47367041895976</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.35</v>
+        <v>-1.785161964212021</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-1</v>
+        <v>7.500401519203109</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-1</v>
+        <v>3.213670418959762</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.98</v>
+        <v>5.469233902374892</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-1</v>
+        <v>4.570401519203108</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-1</v>
+        <v>-0.3851619642120223</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-1</v>
+        <v>8.160401519203107</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-7.919351370185988</v>
+        <v>8.413670418959763</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-8.332437746429454</v>
+        <v>11.14040151920311</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-1</v>
+        <v>13.94483803578798</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.98</v>
+        <v>13.36367041895976</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>18.83130930693056</v>
+        <v>8.284838035787978</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-1</v>
+        <v>15.64040151920311</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.98</v>
+        <v>7.660401519203109</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-1</v>
+        <v>11.44040151920311</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-8.332437746429454</v>
+        <v>1.320401519203108</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3.63</v>
+        <v>15.84367041895976</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.36</v>
+        <v>1.419233902374891</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-16.42706695230342</v>
+        <v>0.05483803578797852</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-1</v>
+        <v>13.28923390237489</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-1</v>
+        <v>2.180401519203108</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2.35</v>
+        <v>1.554838035787978</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-16.42706695230342</v>
+        <v>13.96923390237489</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-1</v>
+        <v>7.580401519203107</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-1</v>
+        <v>2.534838035787979</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-16.42706695230342</v>
+        <v>5.924838035787976</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>3.03</v>
+        <v>5.693670418959762</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-1</v>
+        <v>5.020401519203109</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-1</v>
+        <v>8.760401519203107</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1.36</v>
+        <v>0.733670418959762</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3.63</v>
+        <v>9.643670418959763</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1.14</v>
+        <v>2.159233902374892</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-1</v>
+        <v>7.330401519203109</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-1</v>
+        <v>17.71483803578798</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.35</v>
+        <v>3.643670418959761</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>42.91654447247865</v>
+        <v>7.064838035787977</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-1</v>
+        <v>11.00483803578798</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-1</v>
+        <v>-12.34516196421202</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>3.11</v>
+        <v>5.220401519203108</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1.14</v>
+        <v>9.340401519203109</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>-9.579585819749697</v>
+        <v>11.95040151920311</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1.81</v>
+        <v>5.723670418959761</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>42.91654447247865</v>
+        <v>20.22367041895977</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1.36</v>
+        <v>13.71483803578798</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-16.42706695230342</v>
+        <v>12.24923390237489</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>18.83130930693056</v>
+        <v>8.309233902374892</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>42.91654447247865</v>
+        <v>5.953670418959762</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>-7.919351370185988</v>
+        <v>6.370401519203106</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-16.42706695230342</v>
+        <v>3.873670418959761</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>42.91654447247865</v>
+        <v>4.983670418959761</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1.14</v>
+        <v>8.029233902374891</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-1</v>
+        <v>14.30367041895976</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-1</v>
+        <v>3.594838035787976</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-7.919351370185988</v>
+        <v>2.009233902374893</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-1</v>
+        <v>8.083670418959763</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2.35</v>
+        <v>5.680401519203107</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-1</v>
+        <v>0.1304015192031076</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-1</v>
+        <v>3.513670418959763</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1.36</v>
+        <v>-1.155161964212022</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-1</v>
+        <v>14.68923390237489</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-7.919351370185988</v>
+        <v>6.710401519203108</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.94</v>
+        <v>20.72923390237489</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1.81</v>
+        <v>-6.495161964212022</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>3.06</v>
+        <v>7.164838035787978</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-1</v>
+        <v>-2.255161964212022</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-1</v>
+        <v>-1.055161964212022</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>3.03</v>
+        <v>5.803670418959761</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3.63</v>
+        <v>-3.905161964212021</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-1</v>
+        <v>4.563670418959761</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-1</v>
+        <v>6.994838035787978</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-1</v>
+        <v>11.69923390237489</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>145.0510011888392</v>
+        <v>11.97040151920311</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2.98</v>
+        <v>5.703670418959761</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.35</v>
+        <v>-0.6951619642120215</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2.94</v>
+        <v>4.420401519203109</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-1</v>
+        <v>9.293670418959762</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>145.0510011888392</v>
+        <v>8.820401519203109</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2.35</v>
+        <v>8.059233902374892</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-1</v>
+        <v>0.1348380357879781</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3.06</v>
+        <v>14.06923390237489</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>-1</v>
+        <v>6.403670418959763</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>3.11</v>
+        <v>-0.3451619642120227</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1.14</v>
+        <v>3.570401519203109</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-1</v>
+        <v>0.6904015192031085</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1.38</v>
+        <v>-0.6895984807968922</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-7.919351370185988</v>
+        <v>5.113670418959762</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1.38</v>
+        <v>-5.395161964212022</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>42.91654447247865</v>
+        <v>-1.645161964212023</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-1</v>
+        <v>9.139233902374892</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>18.83130930693056</v>
+        <v>-1.295161964212022</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>3.63</v>
+        <v>5.430401519203109</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-1</v>
+        <v>10.20040151920311</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>3.06</v>
+        <v>4.533670418959764</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>-1</v>
+        <v>-2.209598480796892</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>3.03</v>
+        <v>11.68923390237489</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>18.83130930693056</v>
+        <v>14.01923390237489</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>38.8840152276132</v>
+        <v>14.83923390237489</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>145.0510011888392</v>
+        <v>-0.6095984807968915</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-1</v>
+        <v>7.434838035787978</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>145.0510011888392</v>
+        <v>1.514838035787978</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-1</v>
+        <v>6.049233902374892</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>-1</v>
+        <v>9.430401519203109</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>145.0510011888392</v>
+        <v>1.944838035787979</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-1</v>
+        <v>9.673670418959762</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-1</v>
+        <v>1.804838035787979</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>-1</v>
+        <v>11.23483803578798</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-1</v>
+        <v>5.620401519203108</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-7.919351370185988</v>
+        <v>4.93367041895976</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>-1</v>
+        <v>9.460401519203108</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>18.83130930693056</v>
+        <v>16.20367041895976</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>3.03</v>
+        <v>10.71923390237489</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>-1</v>
+        <v>10.31923390237489</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>145.0510011888392</v>
+        <v>-0.5995984807968919</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>18.83130930693056</v>
+        <v>-4.879598480796892</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>-1</v>
+        <v>-4.115161964212022</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1.81</v>
+        <v>10.86367041895976</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>-16.42706695230342</v>
+        <v>3.833670418959762</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>3.03</v>
+        <v>7.789233902374892</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>-1</v>
+        <v>8.134838035787979</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>-7.919351370185988</v>
+        <v>-2.285161964212021</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1.81</v>
+        <v>1.530401519203108</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1.14</v>
+        <v>-2.035161964212022</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>3.11</v>
+        <v>15.49923390237489</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1.81</v>
+        <v>-6.255161964212022</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1.36</v>
+        <v>18.93923390237489</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>-1</v>
+        <v>7.154838035787977</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-16.42706695230342</v>
+        <v>7.680401519203109</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>18.83130930693056</v>
+        <v>-9.629598480796894</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.98</v>
+        <v>-0.5507660976251088</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-9.579585819749697</v>
+        <v>7.329233902374892</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-1</v>
+        <v>22.64923390237489</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>42.91654447247865</v>
+        <v>14.27483803578798</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1.36</v>
+        <v>12.26923390237489</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1.38</v>
+        <v>10.72367041895976</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1.36</v>
+        <v>1.050401519203108</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-9.579585819749697</v>
+        <v>3.000401519203108</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>3.06</v>
+        <v>-0.3651619642120216</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1.36</v>
+        <v>2.854838035787979</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>18.83130930693056</v>
+        <v>13.75923390237489</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>-1</v>
+        <v>10.60040151920311</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>-1</v>
+        <v>-1.299598480796892</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>3.11</v>
+        <v>6.860401519203108</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2.98</v>
+        <v>4.104838035787978</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.98</v>
+        <v>7.213670418959763</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>18.83130930693056</v>
+        <v>9.883670418959763</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>-1</v>
+        <v>10.56040151920311</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1.14</v>
+        <v>9.819233902374894</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1.38</v>
+        <v>2.100401519203109</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1.38</v>
+        <v>17.7192339023749</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>-1</v>
+        <v>13.43040151920311</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1.81</v>
+        <v>3.454838035787978</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-9.579585819749697</v>
+        <v>8.620401519203108</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-1</v>
+        <v>14.97483803578798</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1.36</v>
+        <v>12.04923390237489</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>-1</v>
+        <v>4.043670418959762</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>145.0510011888392</v>
+        <v>-1.439598480796892</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>-1</v>
+        <v>8.950401519203108</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>-1</v>
+        <v>12.94367041895976</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>3.03</v>
+        <v>-6.22516196421202</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>-1</v>
+        <v>11.44367041895976</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>-1</v>
+        <v>11.67040151920311</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>3.06</v>
+        <v>7.734838035787977</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1.36</v>
+        <v>-0.2695984807968919</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2.98</v>
+        <v>5.190401519203109</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.94</v>
+        <v>1.124838035787978</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>-16.42706695230342</v>
+        <v>4.464838035787977</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>-1</v>
+        <v>12.03040151920311</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1.14</v>
+        <v>-0.2251619642120213</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>3.99</v>
+        <v>10.14367041895976</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>18.83130930693056</v>
+        <v>5.603670418959762</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1.14</v>
+        <v>6.770401519203109</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>-9.579585819749697</v>
+        <v>13.66923390237489</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>-7.919351370185988</v>
+        <v>9.864838035787978</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>-1</v>
+        <v>5.113670418959762</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>-1</v>
+        <v>-0.8951619642120219</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>-16.42706695230342</v>
+        <v>1.540401519203108</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>145.0510011888392</v>
+        <v>14.73040151920311</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>-1</v>
+        <v>12.41367041895976</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-16.42706695230342</v>
+        <v>-2.365161964212022</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>-1</v>
+        <v>0.7848380357879785</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2.94</v>
+        <v>8.653670418959763</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>145.0510011888392</v>
+        <v>2.694838035787978</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>-1</v>
+        <v>3.004838035787978</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.35</v>
+        <v>0.6292339023748916</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>3.03</v>
+        <v>9.279233902374893</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>-7.919351370185988</v>
+        <v>15.88367041895976</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>-1</v>
+        <v>8.650401519203108</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>42.91654447247865</v>
+        <v>10.83040151920311</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1.81</v>
+        <v>14.69923390237489</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1.38</v>
+        <v>6.663670418959762</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>-1</v>
+        <v>7.139233902374892</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>-1</v>
+        <v>1.429233902374891</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>18.83130930693056</v>
+        <v>8.893670418959761</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>-1</v>
+        <v>12.95040151920311</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>-16.42706695230342</v>
+        <v>1.150401519203108</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>38.8840152276132</v>
+        <v>23.92923390237489</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>38.8840152276132</v>
+        <v>14.22923390237489</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>42.91654447247865</v>
+        <v>8.734838035787979</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>-1</v>
+        <v>21.87040151920311</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>-1</v>
+        <v>6.173670418959762</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>38.8840152276132</v>
+        <v>5.623670418959763</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>3.03</v>
+        <v>-2.506329581040238</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>-1</v>
+        <v>3.859233902374891</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>38.8840152276132</v>
+        <v>-0.4707660976251073</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1.36</v>
+        <v>11.97040151920311</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1.14</v>
+        <v>6.989233902374892</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>3.63</v>
+        <v>9.019233902374893</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1.14</v>
+        <v>-0.3063295810402382</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.35</v>
+        <v>1.204838035787978</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>38.8840152276132</v>
+        <v>1.050401519203108</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>-1</v>
+        <v>9.050401519203108</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>-1</v>
+        <v>20.83923390237489</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>3.06</v>
+        <v>11.41367041895976</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1.81</v>
+        <v>11.79367041895976</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>42.91654447247865</v>
+        <v>2.514838035787978</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>3.06</v>
+        <v>20.58923390237489</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>2.98</v>
+        <v>7.633670418959762</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>-1</v>
+        <v>-1.105161964212022</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>-1</v>
+        <v>17.69367041895976</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1.14</v>
+        <v>9.600401519203109</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2.98</v>
+        <v>6.113670418959762</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>38.8840152276132</v>
+        <v>10.44923390237489</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1.38</v>
+        <v>16.68923390237489</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>38.8840152276132</v>
+        <v>11.65923390237489</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-1</v>
+        <v>-0.5763295810402387</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-1</v>
+        <v>-3.335161964212022</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-1</v>
+        <v>-1.615161964212022</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>42.91654447247865</v>
+        <v>11.91367041895976</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1.81</v>
+        <v>7.973670418959761</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>-1</v>
+        <v>1.084838035787978</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1.81</v>
+        <v>-0.6295984807968913</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.94</v>
+        <v>11.42923390237489</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>2.94</v>
+        <v>5.064838035787977</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>-16.42706695230342</v>
+        <v>14.88923390237489</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>145.0510011888392</v>
+        <v>15.55483803578798</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>3.99</v>
+        <v>-2.620766097625109</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>3.03</v>
+        <v>5.470401519203108</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>-1</v>
+        <v>11.38367041895976</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>-16.42706695230342</v>
+        <v>13.59040151920311</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1.38</v>
+        <v>4.410401519203108</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>18.83130930693056</v>
+        <v>2.484838035787978</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1.36</v>
+        <v>-0.6763295810402385</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>-16.42706695230342</v>
+        <v>-3.155161964212022</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>3.06</v>
+        <v>-2.615161964212022</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1.36</v>
+        <v>10.69040151920311</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>3.03</v>
+        <v>0.7992339023748916</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1.36</v>
+        <v>-1.249598480796891</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>18.83130930693056</v>
+        <v>14.39923390237489</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>3.03</v>
+        <v>11.57923390237489</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-1</v>
+        <v>2.894838035787977</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>-1</v>
+        <v>4.713670418959762</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>-1</v>
+        <v>11.14367041895976</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>-1</v>
+        <v>11.28367041895976</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>38.8840152276132</v>
+        <v>4.460401519203108</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>3.63</v>
+        <v>7.964838035787979</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>-1</v>
+        <v>-2.465161964212021</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>3.11</v>
+        <v>1.640401519203108</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>42.91654447247865</v>
+        <v>9.899233902374892</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>-1</v>
+        <v>10.44923390237489</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1.38</v>
+        <v>1.004838035787978</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>-8.332437746429454</v>
+        <v>5.013670418959762</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>-1</v>
+        <v>5.560401519203107</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>-1</v>
+        <v>8.233670418959761</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>38.8840152276132</v>
+        <v>13.17923390237489</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>-16.42706695230342</v>
+        <v>18.01367041895976</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>-1</v>
+        <v>-1.219598480796892</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1.14</v>
+        <v>12.26367041895976</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>-1</v>
+        <v>15.06367041895976</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>-1</v>
+        <v>0.4104015192031085</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>-7.919351370185988</v>
+        <v>10.96040151920311</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-1</v>
+        <v>6.503670418959761</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>-1</v>
+        <v>8.760401519203109</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>145.0510011888392</v>
+        <v>11.97367041895976</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-1</v>
+        <v>-4.145161964212021</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-1</v>
+        <v>3.694838035787978</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>18.83130930693056</v>
+        <v>6.359233902374891</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1.14</v>
+        <v>8.233670418959763</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1.14</v>
+        <v>9.423670418959762</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>-1</v>
+        <v>-0.1751619642120228</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1.14</v>
+        <v>6.264838035787977</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>1.14</v>
+        <v>4.293670418959762</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>3.99</v>
+        <v>6.294838035787977</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>-1</v>
+        <v>2.149233902374892</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>-9.579585819749697</v>
+        <v>6.204838035787978</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>-1</v>
+        <v>8.710401519203108</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>8.83</v>
+        <v>14.86367041895976</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1.14</v>
+        <v>2.393670418959763</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>2.35</v>
+        <v>3.809233902374891</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1.81</v>
+        <v>11.02483803578798</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1.38</v>
+        <v>4.603670418959762</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>1.81</v>
+        <v>-7.535161964212023</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>2.98</v>
+        <v>6.844838035787978</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>1.14</v>
+        <v>15.83923390237489</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>-1</v>
+        <v>-5.016329581040239</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>-1</v>
+        <v>7.750401519203109</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>-1</v>
+        <v>8.410401519203109</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>2.94</v>
+        <v>7.229233902374892</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>-1</v>
+        <v>2.349233902374893</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>-1</v>
+        <v>2.924838035787978</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>1.14</v>
+        <v>2.053670418959761</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>1.81</v>
+        <v>10.65040151920311</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>-1</v>
+        <v>7.320401519203108</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>2.94</v>
+        <v>-1.175161964212022</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>1.36</v>
+        <v>9.909233902374893</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>-1</v>
+        <v>11.86367041895976</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>1.14</v>
+        <v>-3.785161964212021</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>-8.332437746429454</v>
+        <v>9.389233902374892</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>1.14</v>
+        <v>19.00923390237489</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>3.63</v>
+        <v>-1.645161964212022</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>-1</v>
+        <v>13.39923390237489</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>145.0510011888392</v>
+        <v>5.543670418959763</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>38.8840152276132</v>
+        <v>7.933670418959764</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>-1</v>
+        <v>8.519233902374893</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>38.8840152276132</v>
+        <v>9.104838035787976</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>1.36</v>
+        <v>5.329233902374892</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>1.14</v>
+        <v>8.239233902374892</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>145.0510011888392</v>
+        <v>-0.1607660976251089</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>-1</v>
+        <v>4.143670418959761</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>-1</v>
+        <v>9.519233902374891</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>-1</v>
+        <v>10.68367041895976</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>3.99</v>
+        <v>11.38923390237489</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>42.91654447247865</v>
+        <v>9.943670418959762</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>-1</v>
+        <v>3.829233902374892</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>3.11</v>
+        <v>4.159233902374892</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>-1</v>
+        <v>8.769233902374893</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>-9.579585819749697</v>
+        <v>11.98367041895976</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>-1</v>
+        <v>9.813670418959761</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>1.14</v>
+        <v>-0.03516196421202111</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>-8.332437746429454</v>
+        <v>-0.9695984807968925</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>3.63</v>
+        <v>6.000401519203108</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>2.35</v>
+        <v>5.140401519203109</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>-1</v>
+        <v>-0.5895984807968919</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>-9.579585819749697</v>
+        <v>8.280401519203108</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>1.14</v>
+        <v>5.839233902374891</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>1.14</v>
+        <v>8.67483803578798</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>-1</v>
+        <v>7.513670418959762</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>2.98</v>
+        <v>7.723670418959761</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>2.94</v>
+        <v>14.62923390237489</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>-1</v>
+        <v>3.213670418959762</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>-1</v>
+        <v>6.213670418959762</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>-1</v>
+        <v>6.960401519203108</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>-1</v>
+        <v>5.764838035787979</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>38.8840152276132</v>
+        <v>7.014838035787978</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>1.14</v>
+        <v>13.08923390237489</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>1.38</v>
+        <v>8.203670418959764</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>1.14</v>
+        <v>18.75923390237489</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>1.38</v>
+        <v>12.01367041895976</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>1.14</v>
+        <v>3.084838035787978</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>2.94</v>
+        <v>10.94923390237489</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>18.83130930693056</v>
+        <v>5.779233902374891</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>18.83130930693056</v>
+        <v>8.523670418959762</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>-1</v>
+        <v>9.589233902374891</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>18.83130930693056</v>
+        <v>10.17923390237489</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>3.63</v>
+        <v>5.769233902374892</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>-1</v>
+        <v>9.309233902374892</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>2.94</v>
+        <v>10.74040151920311</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>1.38</v>
+        <v>-1.139598480796892</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>-1</v>
+        <v>8.009233902374891</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>3.11</v>
+        <v>3.104838035787978</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>-1</v>
+        <v>2.830401519203108</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>-1</v>
+        <v>6.843670418959762</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>3.63</v>
+        <v>9.30040151920311</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>-1</v>
+        <v>11.33923390237489</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>-1</v>
+        <v>3.003670418959762</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>3.06</v>
+        <v>11.61040151920311</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>18.83130930693056</v>
+        <v>1.523670418959762</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>-1</v>
+        <v>2.200401519203108</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>-1</v>
+        <v>1.234838035787978</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>-1</v>
+        <v>11.37367041895976</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>18.83130930693056</v>
+        <v>3.543670418959762</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>3.06</v>
+        <v>1.539233902374892</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>18.83130930693056</v>
+        <v>11.79040151920311</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>18.83130930693056</v>
+        <v>12.49367041895976</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>38.8840152276132</v>
+        <v>8.620401519203108</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>-1</v>
+        <v>10.83367041895976</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>-1</v>
+        <v>15.95923390237489</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>-7.919351370185988</v>
+        <v>1.310401519203108</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>8.83</v>
+        <v>8.094838035787978</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>1.38</v>
+        <v>2.014838035787976</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>42.91654447247865</v>
+        <v>1.663670418959762</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>145.0510011888392</v>
+        <v>4.734838035787977</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>145.0510011888392</v>
+        <v>2.423670418959762</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>3.99</v>
+        <v>-0.7951619642120213</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>3.06</v>
+        <v>17.78483803578798</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>1.36</v>
+        <v>-0.6395984807968913</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>2.98</v>
+        <v>5.560401519203108</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>-1</v>
+        <v>8.283670418959762</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>2.35</v>
+        <v>9.009233902374891</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>-1</v>
+        <v>15.61040151920311</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>1.36</v>
+        <v>10.93040151920311</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>-1</v>
+        <v>6.473670418959763</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>-1</v>
+        <v>16.67923390237489</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>3.06</v>
+        <v>12.95367041895976</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>1.14</v>
+        <v>10.70923390237489</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>-1</v>
+        <v>-1.595161964212022</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>2.94</v>
+        <v>4.294838035787979</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>-1</v>
+        <v>-2.269598480796892</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>1.36</v>
+        <v>4.583670418959763</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>-1</v>
+        <v>11.41483803578798</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>3.99</v>
+        <v>3.494838035787978</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>-1</v>
+        <v>10.64923390237489</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>-1</v>
+        <v>-0.5563295810402387</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>145.0510011888392</v>
+        <v>14.47040151920311</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>-1</v>
+        <v>5.283670418959762</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>1.14</v>
+        <v>10.24040151920311</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>-1</v>
+        <v>10.37367041895976</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>38.8840152276132</v>
+        <v>5.480401519203108</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>-7.919351370185988</v>
+        <v>5.270401519203107</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>3.03</v>
+        <v>14.18923390237489</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>2.35</v>
+        <v>-0.3695984807968919</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>1.14</v>
+        <v>9.399233902374892</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>1.36</v>
+        <v>4.169233902374892</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>42.91654447247865</v>
+        <v>8.744838035787978</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>-16.42706695230342</v>
+        <v>12.57923390237489</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>-16.42706695230342</v>
+        <v>9.384838035787979</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>2.35</v>
+        <v>10.44923390237489</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>-1</v>
+        <v>-4.279598480796892</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>1.81</v>
+        <v>11.59040151920311</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>3.11</v>
+        <v>2.104838035787978</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>-1</v>
+        <v>7.373670418959762</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>-1</v>
+        <v>-1.605161964212022</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>-1</v>
+        <v>5.634838035787977</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>-7.919351370185988</v>
+        <v>4.323670418959761</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>-1</v>
+        <v>-2.835161964212021</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>145.0510011888392</v>
+        <v>4.910401519203108</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>1.38</v>
+        <v>-4.465161964212021</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>-1</v>
+        <v>0.4648380357879784</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>-1</v>
+        <v>17.94923390237489</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>-1</v>
+        <v>12.81040151920311</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>-1</v>
+        <v>1.650401519203109</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>3.99</v>
+        <v>12.46367041895976</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>-1</v>
+        <v>3.753670418959763</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>1.81</v>
+        <v>9.319233902374892</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>1.81</v>
+        <v>-5.779598480796892</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>-1</v>
+        <v>1.333670418959761</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>3.03</v>
+        <v>16.02923390237489</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>42.91654447247865</v>
+        <v>5.014838035787978</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>3.63</v>
+        <v>13.16483803578798</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>2.94</v>
+        <v>7.219233902374892</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>-1</v>
+        <v>5.273670418959762</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>2.98</v>
+        <v>-0.3507660976251088</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>-8.332437746429454</v>
+        <v>-1.119598480796892</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>2.94</v>
+        <v>8.133670418959763</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>-1</v>
+        <v>6.740401519203107</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>42.91654447247865</v>
+        <v>10.59923390237489</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>-16.42706695230342</v>
+        <v>6.553670418959761</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>3.03</v>
+        <v>8.143670418959761</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>1.14</v>
+        <v>-1.016329581040238</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>42.91654447247865</v>
+        <v>5.809233902374892</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>-1</v>
+        <v>1.723670418959763</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>1.14</v>
+        <v>4.764838035787979</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>-16.42706695230342</v>
+        <v>8.789233902374892</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>-7.919351370185988</v>
+        <v>16.95367041895976</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>-1</v>
+        <v>1.439233902374892</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>-16.42706695230342</v>
+        <v>13.20923390237489</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>-1</v>
+        <v>-0.7995984807968919</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>-1</v>
+        <v>-1.129598480796892</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>-1</v>
+        <v>4.360401519203108</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>-1</v>
+        <v>5.600401519203109</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>-1</v>
+        <v>-0.726329581040237</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>-1</v>
+        <v>16.59367041895976</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>2.94</v>
+        <v>10.39367041895976</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>1.14</v>
+        <v>9.014838035787978</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>1.81</v>
+        <v>5.414838035787978</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>3.11</v>
+        <v>14.81367041895976</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>38.8840152276132</v>
+        <v>8.583670418959761</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>-1</v>
+        <v>-1.735161964212022</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>2.35</v>
+        <v>1.753670418959761</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>145.0510011888392</v>
+        <v>4.410401519203107</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>3.03</v>
+        <v>0.9704015192031079</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>-1</v>
+        <v>-2.176329581040238</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>-1</v>
+        <v>-7.035161964212023</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>3.03</v>
+        <v>4.894838035787977</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>-9.579585819749697</v>
+        <v>19.59923390237489</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>-1</v>
+        <v>6.403670418959763</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>1.14</v>
+        <v>9.279233902374893</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>1.38</v>
+        <v>5.663670418959762</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>-1</v>
+        <v>-1.505161964212022</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>8.83</v>
+        <v>-3.785161964212021</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>38.8840152276132</v>
+        <v>3.230401519203109</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>-9.579585819749697</v>
+        <v>11.98923390237489</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>1.14</v>
+        <v>14.69367041895976</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>3.06</v>
+        <v>17.12923390237489</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>1.81</v>
+        <v>8.043670418959763</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>1.38</v>
+        <v>1.030401519203108</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>-1</v>
+        <v>3.239233902374892</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>-1</v>
+        <v>7.473670418959763</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>-1</v>
+        <v>5.53040151920311</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>42.91654447247865</v>
+        <v>0.1892339023748917</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>1.14</v>
+        <v>9.840401519203107</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>1.14</v>
+        <v>4.230401519203109</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>-1</v>
+        <v>14.38367041895976</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>38.8840152276132</v>
+        <v>5.464838035787977</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>2.94</v>
+        <v>11.50483803578798</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>2.98</v>
+        <v>11.21923390237489</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>-1</v>
+        <v>6.199233902374893</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>-1</v>
+        <v>3.759233902374892</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>-1</v>
+        <v>7.230401519203108</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>-1</v>
+        <v>10.73367041895976</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>-9.579585819749697</v>
+        <v>9.739233902374892</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>-1</v>
+        <v>0.8048380357879785</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>-1</v>
+        <v>18.36923390237489</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>3.03</v>
+        <v>7.549233902374894</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>3.99</v>
+        <v>-2.479598480796892</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>1.81</v>
+        <v>13.95367041895976</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>-1</v>
+        <v>1.784838035787978</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>2.94</v>
+        <v>3.030401519203108</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>1.38</v>
+        <v>16.83923390237489</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>2.94</v>
+        <v>13.44923390237489</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>2.94</v>
+        <v>12.83483803578798</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>8.83</v>
+        <v>7.084838035787978</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>38.8840152276132</v>
+        <v>5.130401519203108</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>18.83130930693056</v>
+        <v>5.583670418959761</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>3.63</v>
+        <v>6.714838035787977</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>-1</v>
+        <v>10.49367041895976</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>-1</v>
+        <v>-9.645161964212022</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>-9.579585819749697</v>
+        <v>17.35923390237489</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>38.8840152276132</v>
+        <v>16.22923390237489</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>-1</v>
+        <v>17.89923390237489</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>3.11</v>
+        <v>0.3336704189597621</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>-1</v>
+        <v>15.77040151920311</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>-1</v>
+        <v>2.893670418959763</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>3.63</v>
+        <v>0.09483803578797811</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>2.98</v>
+        <v>16.49367041895976</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>-1</v>
+        <v>5.560401519203107</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>-1</v>
+        <v>13.43923390237489</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>-1</v>
+        <v>1.484838035787979</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>-1</v>
+        <v>14.38367041895976</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>1.14</v>
+        <v>8.703670418959762</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>1.38</v>
+        <v>22.02367041895976</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>-1</v>
+        <v>2.004838035787977</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>2.35</v>
+        <v>15.33040151920311</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>18.83130930693056</v>
+        <v>-2.865161964212021</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>-16.42706695230342</v>
+        <v>2.533670418959763</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>8.83</v>
+        <v>14.13040151920311</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>42.91654447247865</v>
+        <v>7.780401519203108</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>-1</v>
+        <v>-6.079598480796892</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>-1</v>
+        <v>5.934838035787978</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>1.14</v>
+        <v>20.3804015192031</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>42.91654447247865</v>
+        <v>17.28040151920311</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>3.63</v>
+        <v>15.93923390237489</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>-1</v>
+        <v>-2.185161964212022</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>3.06</v>
+        <v>2.420401519203109</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>3.63</v>
+        <v>7.610401519203108</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>-1</v>
+        <v>-1.615161964212021</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>-1</v>
+        <v>4.589233902374891</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>-9.579585819749697</v>
+        <v>9.37040151920311</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>-1</v>
+        <v>18.1292339023749</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>-1</v>
+        <v>2.680401519203108</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>18.83130930693056</v>
+        <v>8.859233902374893</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>-1</v>
+        <v>12.88923390237489</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>2.94</v>
+        <v>-3.135161964212022</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>2.98</v>
+        <v>0.7536704189597623</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>-1</v>
+        <v>0.4704015192031086</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>2.94</v>
+        <v>4.253670418959761</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>-1</v>
+        <v>6.283670418959762</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>-1</v>
+        <v>2.414838035787978</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>-1</v>
+        <v>12.08923390237489</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>2.35</v>
+        <v>3.613670418959762</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>1.38</v>
+        <v>5.730401519203108</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>-1</v>
+        <v>4.804838035787979</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>3.63</v>
+        <v>6.973670418959763</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>38.8840152276132</v>
+        <v>6.224838035787978</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>-1</v>
+        <v>6.973670418959761</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>-1</v>
+        <v>3.384838035787977</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>-7.919351370185988</v>
+        <v>1.264838035787977</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>-1</v>
+        <v>12.15923390237489</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>1.36</v>
+        <v>2.529233902374892</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>-9.579585819749697</v>
+        <v>5.274838035787979</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>-1</v>
+        <v>9.833670418959763</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>3.03</v>
+        <v>11.25483803578798</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>18.83130930693056</v>
+        <v>10.49923390237489</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>-1</v>
+        <v>3.854838035787979</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>3.63</v>
+        <v>10.73367041895976</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>3.03</v>
+        <v>-0.8851619642120219</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>-1</v>
+        <v>11.36923390237489</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>-1</v>
+        <v>11.54923390237489</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>2.94</v>
+        <v>8.090401519203109</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>42.91654447247865</v>
+        <v>12.95923390237489</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>1.14</v>
+        <v>-1.425161964212022</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>2.94</v>
+        <v>2.110401519203108</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>1.14</v>
+        <v>5.789233902374892</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>-1</v>
+        <v>7.410401519203109</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>38.8840152276132</v>
+        <v>12.44923390237489</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>-1</v>
+        <v>5.134838035787978</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>1.36</v>
+        <v>9.570401519203109</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>-9.579585819749697</v>
+        <v>8.324838035787979</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>-1</v>
+        <v>-2.465161964212022</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>38.8840152276132</v>
+        <v>16.71923390237489</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>2.94</v>
+        <v>6.090401519203107</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>-1</v>
+        <v>8.510401519203109</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>2.98</v>
+        <v>6.464838035787977</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>-1</v>
+        <v>3.134838035787977</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>145.0510011888392</v>
+        <v>12.74923390237489</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>1.14</v>
+        <v>1.600401519203108</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>145.0510011888392</v>
+        <v>1.730401519203108</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>-1</v>
+        <v>7.664838035787978</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>1.36</v>
+        <v>10.78923390237489</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>-1</v>
+        <v>16.22923390237489</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>3.99</v>
+        <v>6.669233902374893</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>-1</v>
+        <v>11.89367041895976</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>-1</v>
+        <v>14.80367041895976</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>38.8840152276132</v>
+        <v>11.37040151920311</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>18.83130930693056</v>
+        <v>4.159233902374892</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>1.36</v>
+        <v>8.13040151920311</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>-1</v>
+        <v>7.554838035787977</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>2.98</v>
+        <v>9.573670418959763</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>145.0510011888392</v>
+        <v>6.163670418959763</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>1.38</v>
+        <v>7.464838035787977</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>42.91654447247865</v>
+        <v>5.019233902374893</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>3.99</v>
+        <v>4.950401519203107</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>-9.579585819749697</v>
+        <v>12.10040151920311</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>3.63</v>
+        <v>-2.386329581040238</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>-1</v>
+        <v>11.03923390237489</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>-1</v>
+        <v>5.323670418959763</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>2.35</v>
+        <v>-0.5007660976251085</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>1.38</v>
+        <v>7.064838035787977</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>1.14</v>
+        <v>-2.175161964212021</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>-1</v>
+        <v>14.10923390237489</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>1.14</v>
+        <v>3.914838035787978</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>-1</v>
+        <v>5.533670418959761</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>1.14</v>
+        <v>9.779233902374893</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>-1</v>
+        <v>7.519233902374893</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>1.38</v>
+        <v>11.68923390237489</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>3.03</v>
+        <v>13.43367041895976</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>-1</v>
+        <v>1.909233902374891</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>3.99</v>
+        <v>0.7448380357879785</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>-1</v>
+        <v>13.56367041895976</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>-1</v>
+        <v>-0.1851619642120217</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>2.98</v>
+        <v>12.90483803578798</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>-1</v>
+        <v>-4.666329581040238</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>145.0510011888392</v>
+        <v>17.91923390237489</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>1.36</v>
+        <v>11.77040151920311</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>-1</v>
+        <v>11.07040151920311</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>3.99</v>
+        <v>0.7704015192031082</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>38.8840152276132</v>
+        <v>13.41923390237489</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>-1</v>
+        <v>11.41923390237489</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>3.63</v>
+        <v>9.973670418959763</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>-9.579585819749697</v>
+        <v>-4.769598480796891</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>-1</v>
+        <v>6.320401519203109</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>-1</v>
+        <v>1.003670418959762</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>3.11</v>
+        <v>17.21923390237489</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>2.98</v>
+        <v>6.649233902374892</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>-1</v>
+        <v>7.119233902374893</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>-1</v>
+        <v>8.104838035787978</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>3.03</v>
+        <v>8.060401519203108</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>42.91654447247865</v>
+        <v>13.74923390237489</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>38.8840152276132</v>
+        <v>6.284838035787978</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>1.81</v>
+        <v>4.423670418959761</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>18.83130930693056</v>
+        <v>14.17923390237489</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>-1</v>
+        <v>3.570401519203108</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>2.98</v>
+        <v>5.439233902374891</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>1.36</v>
+        <v>6.700401519203108</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>-9.579585819749697</v>
+        <v>6.809233902374892</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>3.99</v>
+        <v>6.280401519203108</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>18.83130930693056</v>
+        <v>12.37367041895976</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>1.81</v>
+        <v>7.069233902374892</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>-1</v>
+        <v>5.790401519203109</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>145.0510011888392</v>
+        <v>11.48923390237489</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>-1</v>
+        <v>20.27040151920311</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>-7.919351370185988</v>
+        <v>4.724838035787979</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>1.14</v>
+        <v>5.150401519203108</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>-1</v>
+        <v>14.29367041895976</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>3.63</v>
+        <v>6.164838035787978</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>1.36</v>
+        <v>0.1204015192031074</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>2.94</v>
+        <v>14.18923390237489</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>18.83130930693056</v>
+        <v>-1.969598480796892</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>42.91654447247865</v>
+        <v>3.144838035787979</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>-1</v>
+        <v>5.194838035787978</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>-1</v>
+        <v>1.010401519203108</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>3.63</v>
+        <v>-3.445161964212022</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>3.11</v>
+        <v>3.833670418959762</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>18.83130930693056</v>
+        <v>2.290401519203108</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>38.8840152276132</v>
+        <v>3.313670418959761</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>-1</v>
+        <v>3.663670418959762</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>3.99</v>
+        <v>-0.2463295810402384</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>-1</v>
+        <v>3.039233902374891</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>3.63</v>
+        <v>9.193670418959762</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>1.38</v>
+        <v>5.244838035787978</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>-1</v>
+        <v>-0.3351619642120214</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>1.38</v>
+        <v>0.9292339023748921</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>1.36</v>
+        <v>-3.295161964212021</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>-1</v>
+        <v>4.203670418959763</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>1.14</v>
+        <v>0.694838035787978</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>-1</v>
+        <v>14.46923390237489</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>-1</v>
+        <v>-0.5795984807968926</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>-1</v>
+        <v>8.073670418959763</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>38.8840152276132</v>
+        <v>13.88367041895976</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>-1</v>
+        <v>10.44040151920311</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>42.91654447247865</v>
+        <v>4.989233902374892</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>2.94</v>
+        <v>4.360401519203108</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>2.98</v>
+        <v>8.933670418959762</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>1.14</v>
+        <v>11.29367041895976</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>-7.919351370185988</v>
+        <v>10.66040151920311</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>-16.42706695230342</v>
+        <v>9.643670418959763</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>-1</v>
+        <v>-1.165161964212021</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>1.38</v>
+        <v>0.139233902374893</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>-1</v>
+        <v>10.86040151920311</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>3.11</v>
+        <v>15.64923390237489</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>1.14</v>
+        <v>13.40923390237489</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>18.83130930693056</v>
+        <v>0.7148380357879778</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>3.06</v>
+        <v>14.30367041895976</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>-1</v>
+        <v>12.20923390237489</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>-1</v>
+        <v>18.86923390237489</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>-1</v>
+        <v>13.79367041895976</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>2.94</v>
+        <v>0.02923390237489176</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>8.83</v>
+        <v>-6.045161964212021</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>1.38</v>
+        <v>4.600401519203108</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>-1</v>
+        <v>-9.599598480796892</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>-1</v>
+        <v>11.40040151920311</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>-1</v>
+        <v>1.550401519203108</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>38.8840152276132</v>
+        <v>0.600401519203108</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>2.94</v>
+        <v>12.05040151920311</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>-1</v>
+        <v>5.790401519203108</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>3.99</v>
+        <v>10.52367041895976</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>-1</v>
+        <v>8.603670418959762</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>3.63</v>
+        <v>2.140401519203109</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>2.35</v>
+        <v>-3.245161964212022</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>42.91654447247865</v>
+        <v>-3.865161964212021</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>-1</v>
+        <v>-3.505161964212021</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>1.81</v>
+        <v>-5.045161964212021</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>2.35</v>
+        <v>7.39040151920311</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>-16.42706695230342</v>
+        <v>2.639233902374891</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>-1</v>
+        <v>13.17367041895976</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>3.06</v>
+        <v>11.36367041895976</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>-16.42706695230342</v>
+        <v>9.170401519203107</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>-1</v>
+        <v>16.48923390237489</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>3.03</v>
+        <v>13.36367041895976</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>3.11</v>
+        <v>-0.04516196421202201</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>1.38</v>
+        <v>10.76483803578798</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>-7.919351370185988</v>
+        <v>5.280401519203108</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>2.94</v>
+        <v>-0.8951619642120214</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>2.98</v>
+        <v>1.444838035787979</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>-1</v>
+        <v>-2.649598480796893</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>1.81</v>
+        <v>8.163670418959763</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>-1</v>
+        <v>1.000401519203108</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>-7.919351370185988</v>
+        <v>17.09040151920311</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>-1</v>
+        <v>8.124838035787979</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>-1</v>
+        <v>5.540401519203108</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>1.14</v>
+        <v>9.100401519203109</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>18.83130930693056</v>
+        <v>-0.4051619642120214</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>-1</v>
+        <v>13.26040151920311</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>1.81</v>
+        <v>-2.836329581040238</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>1.14</v>
+        <v>5.080401519203109</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>8.83</v>
+        <v>-3.495161964212022</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>2.94</v>
+        <v>16.63923390237489</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>3.06</v>
+        <v>10.21483803578798</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>-1</v>
+        <v>15.08040151920311</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>-1</v>
+        <v>4.554838035787979</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>-1</v>
+        <v>12.89040151920311</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>3.03</v>
+        <v>-4.515161964212021</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>2.94</v>
+        <v>0.7948380357879772</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>1.14</v>
+        <v>-3.519598480796892</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>-1</v>
+        <v>7.380401519203108</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>1.14</v>
+        <v>10.29923390237489</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>-1</v>
+        <v>6.230401519203108</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>-1</v>
+        <v>2.550401519203108</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>1.14</v>
+        <v>3.430401519203109</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>2.94</v>
+        <v>-7.595161964212021</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>1.36</v>
+        <v>8.499233902374893</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>2.35</v>
+        <v>-3.895161964212022</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>1.36</v>
+        <v>4.650401519203108</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>1.81</v>
+        <v>-1.235161964212021</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>-1</v>
+        <v>0.9148380357879784</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>1.36</v>
+        <v>4.543670418959762</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>-9.579585819749697</v>
+        <v>1.929233902374891</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>-9.579585819749697</v>
+        <v>13.41923390237489</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>-7.919351370185988</v>
+        <v>-3.865161964212022</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>1.14</v>
+        <v>-1.129598480796893</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>1.38</v>
+        <v>11.93923390237489</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>-9.579585819749697</v>
+        <v>-1.559598480796892</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>-9.579585819749697</v>
+        <v>15.12367041895976</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>1.38</v>
+        <v>10.76483803578798</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>38.8840152276132</v>
+        <v>7.500401519203107</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>3.06</v>
+        <v>-0.786329581040238</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>-1</v>
+        <v>6.700401519203108</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>2.98</v>
+        <v>7.219233902374892</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>1.36</v>
+        <v>10.02367041895976</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>-1</v>
+        <v>8.943670418959762</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>1.81</v>
+        <v>2.924838035787978</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>-9.579585819749697</v>
+        <v>16.50923390237489</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>1.36</v>
+        <v>3.194838035787978</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>3.99</v>
+        <v>13.37923390237489</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>-1</v>
+        <v>23.10923390237489</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>-1</v>
+        <v>-2.755161964212022</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>-9.579585819749697</v>
+        <v>-5.255161964212022</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>3.63</v>
+        <v>2.544838035787977</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>-1</v>
+        <v>4.134838035787978</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>-1</v>
+        <v>7.829233902374892</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>145.0510011888392</v>
+        <v>0.01483803578797782</v>
       </c>
     </row>
   </sheetData>
@@ -7583,19 +7780,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.725947887189919</v>
+        <v>6.508351534701663</v>
       </c>
       <c r="B2" t="n">
-        <v>1.14</v>
+        <v>6.454838035787978</v>
       </c>
       <c r="C2" t="n">
-        <v>145.0510011888392</v>
+        <v>23.92923390237489</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.42706695230342</v>
+        <v>-12.34516196421202</v>
       </c>
       <c r="E2" t="n">
-        <v>0.545</v>
+        <v>0.537</v>
       </c>
     </row>
   </sheetData>
